--- a/GPA_Calculator.xlsx
+++ b/GPA_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imran Younas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF60A501-27DB-4C8E-9A47-1F2C94AD8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD00E3C-9BCC-4899-980C-5C8CA715EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0D62D47-E183-4937-96A5-6E445B91F092}"/>
   </bookViews>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,20 +213,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +543,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,36 +558,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -597,12 +596,12 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>3.2</v>
-      </c>
-      <c r="L6" s="11" t="s">
+        <v>2.67</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -611,27 +610,27 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="L7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="7">
         <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="L8" s="11" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="7">
         <v>1.67</v>
       </c>
     </row>
@@ -641,29 +640,29 @@
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="L10" s="11" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="L10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="7">
         <v>2.33</v>
       </c>
     </row>
@@ -687,10 +686,10 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="7">
         <v>2.67</v>
       </c>
     </row>
@@ -708,10 +707,10 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="7">
         <v>3</v>
       </c>
     </row>
@@ -726,10 +725,10 @@
         <v>2.67</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="7">
         <v>3.33</v>
       </c>
     </row>
@@ -741,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="7">
         <v>3.67</v>
       </c>
     </row>
@@ -759,72 +758,63 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="10">
-        <f>SUMPRODUCT(B12:B28,C12:C28)/SUM(B12:B28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J17" s="6">
+        <f>IF(AND(ROUND(SUMPRODUCT(B12:B28,C12:C28)/SUM(B12:B28),2)&gt;=1.996,ROUND(SUMPRODUCT(B12:B28,C12:C28)/SUM(B12:B28),2)&lt;=1.999),2,ROUND(SUMPRODUCT(B12:B28,C12:C28)/SUM(B12:B28),2))</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D18" s="2"/>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="10">
-        <f>((SUMPRODUCT(B12:B28,C12:C28)) + ((B7*B6)-(SUMPRODUCT(F12:F26,G12:G26)))) / (((B7) - SUM(F12:F26)) + (SUM(B12:B26)))</f>
-        <v>3.0779661016949156</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="6">
+        <f>IF(AND(ROUND(((SUMPRODUCT(B12:B28,C12:C28)) + ((B7*B6)-(SUMPRODUCT(F12:F26,G12:G26)))) / (((B7) - SUM(F12:F26)) + (SUM(B12:B26))),2) &gt;= 1.996, ROUND(((SUMPRODUCT(B12:B28,C12:C28)) + ((B7*B6)-(SUMPRODUCT(F12:F26,G12:G26)))) / (((B7) - SUM(F12:F26)) + (SUM(B12:B26))),2) &lt;= 1.999), 2, ROUND(((SUMPRODUCT(B12:B28,C12:C28)) + ((B7*B6)-(SUMPRODUCT(F12:F26,G12:G26)))) / (((B7) - SUM(F12:F26)) + (SUM(B12:B26))),2))</f>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
     </row>
   </sheetData>
